--- a/2017_08 Lab wings excel files/Lab reared 13 landmarks separate by group.xlsx
+++ b/2017_08 Lab wings excel files/Lab reared 13 landmarks separate by group.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Dropbox\Wing project\Landmark comparison\Lab reared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\2017_08 Lab wings excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6105" windowHeight="4770" firstSheet="22" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6105" windowHeight="4770" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ARSFA" sheetId="7" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="811">
   <si>
     <t>F</t>
   </si>
@@ -56659,8 +56659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75048,7 +75048,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79156,10 +79156,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD26"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81246,89 +81246,6 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26">
-        <v>487</v>
-      </c>
-      <c r="F26">
-        <v>448</v>
-      </c>
-      <c r="G26">
-        <v>1316</v>
-      </c>
-      <c r="H26">
-        <v>512</v>
-      </c>
-      <c r="I26">
-        <v>1334</v>
-      </c>
-      <c r="J26">
-        <v>541</v>
-      </c>
-      <c r="K26">
-        <v>1065</v>
-      </c>
-      <c r="L26">
-        <v>471</v>
-      </c>
-      <c r="M26">
-        <v>1340</v>
-      </c>
-      <c r="N26">
-        <v>576</v>
-      </c>
-      <c r="O26">
-        <v>1323</v>
-      </c>
-      <c r="P26">
-        <v>601</v>
-      </c>
-      <c r="Q26">
-        <v>1294</v>
-      </c>
-      <c r="R26">
-        <v>621</v>
-      </c>
-      <c r="S26">
-        <v>1098</v>
-      </c>
-      <c r="T26">
-        <v>570</v>
-      </c>
-      <c r="U26">
-        <v>1235</v>
-      </c>
-      <c r="V26">
-        <v>644</v>
-      </c>
-      <c r="W26">
-        <v>1133</v>
-      </c>
-      <c r="X26">
-        <v>662</v>
-      </c>
-      <c r="Y26">
-        <v>805</v>
-      </c>
-      <c r="Z26">
-        <v>525</v>
-      </c>
-      <c r="AA26">
-        <v>992</v>
-      </c>
-      <c r="AB26">
-        <v>661</v>
-      </c>
-      <c r="AC26">
-        <v>858</v>
-      </c>
-      <c r="AD26">
-        <v>642</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
